--- a/data/trans_dic/P79$recibos_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P79$recibos_2023-Estudios-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1295887970020314</v>
+        <v>0.1299752514846676</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1447006446679964</v>
+        <v>0.1426672485948401</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1441796800943332</v>
+        <v>0.1433623209542847</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.18718416831295</v>
+        <v>0.1886278697608113</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1880159877476621</v>
+        <v>0.1870285881082083</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1802302750962405</v>
+        <v>0.1801308669136058</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.09472710662206058</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.09231506739863347</v>
+        <v>0.09231506739863349</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.07615205581104</v>
+        <v>0.07662877403420931</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.08188307125587643</v>
+        <v>0.08253696546723009</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.08295941466252715</v>
+        <v>0.08300696750330323</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1042225001384297</v>
+        <v>0.1051666326885658</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1087917311779065</v>
+        <v>0.1082418865362328</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1024916557170149</v>
+        <v>0.1016157130969879</v>
       </c>
     </row>
     <row r="10">
@@ -677,7 +677,7 @@
         <v>0.01841237537260932</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.03774520543267469</v>
+        <v>0.03774520543267468</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.02816097135808256</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01059205100111706</v>
+        <v>0.01029813082850731</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02543958305481985</v>
+        <v>0.02680275961222995</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02114745416084384</v>
+        <v>0.02097231749872261</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0324654505408597</v>
+        <v>0.02995675240337634</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05329411427307855</v>
+        <v>0.05442497335000464</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03877063921714584</v>
+        <v>0.03845922594883298</v>
       </c>
     </row>
     <row r="13">
@@ -732,7 +732,7 @@
         <v>0.08606590093535946</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.09849605856059469</v>
+        <v>0.09849605856059471</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.09243997075430609</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.07629058817425279</v>
+        <v>0.07647492046060354</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.08976512613789574</v>
+        <v>0.08997181934687284</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.08600594504539789</v>
+        <v>0.08564850930991251</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.09657029300920554</v>
+        <v>0.09647064833665174</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1071899448569965</v>
+        <v>0.1086987511011243</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.09948518415541391</v>
+        <v>0.1000924629382763</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>71366</v>
+        <v>71579</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>112880</v>
+        <v>111294</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>191875</v>
+        <v>190788</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>103085</v>
+        <v>103880</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>146671</v>
+        <v>145900</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>239852</v>
+        <v>239720</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>164261</v>
+        <v>165289</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>171521</v>
+        <v>172891</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>352720</v>
+        <v>352923</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>224809</v>
+        <v>226845</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>227887</v>
+        <v>226736</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>435766</v>
+        <v>432042</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>7464</v>
+        <v>7257</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>18233</v>
+        <v>19210</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>30059</v>
+        <v>29810</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>22877</v>
+        <v>21109</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>38198</v>
+        <v>39008</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>55108</v>
+        <v>54665</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>260332</v>
+        <v>260961</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>322395</v>
+        <v>323138</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>602378</v>
+        <v>599875</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>329534</v>
+        <v>329194</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>384977</v>
+        <v>390396</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>696786</v>
+        <v>701039</v>
       </c>
     </row>
     <row r="20">
